--- a/data/trans_camb/P2A_enfcro_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 24,78</t>
+          <t>-1,29; 24,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 10,3</t>
+          <t>-16,01; 9,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,82; 59,61</t>
+          <t>38,31; 58,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 24,27</t>
+          <t>-0,9; 22,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 15,06</t>
+          <t>-10,27; 15,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,66; 41,5</t>
+          <t>23,5; 41,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 20,07</t>
+          <t>2,79; 20,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 9,08</t>
+          <t>-9,74; 7,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,73; 47,0</t>
+          <t>33,15; 46,57</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 57,95</t>
+          <t>-1,98; 55,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 22,97</t>
+          <t>-27,76; 21,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,54; 147,87</t>
+          <t>62,22; 144,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 43,64</t>
+          <t>-1,21; 40,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 27,03</t>
+          <t>-15,38; 26,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,83; 77,59</t>
+          <t>33,58; 75,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 38,58</t>
+          <t>4,01; 39,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 17,05</t>
+          <t>-15,66; 14,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,2; 93,97</t>
+          <t>53,24; 92,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,48; 18,23</t>
+          <t>6,71; 18,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 12,13</t>
+          <t>-0,48; 11,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,1; 54,0</t>
+          <t>44,3; 53,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 13,03</t>
+          <t>1,86; 12,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 9,36</t>
+          <t>-2,57; 8,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,61; 41,82</t>
+          <t>33,28; 41,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 14,37</t>
+          <t>5,92; 13,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,56</t>
+          <t>0,41; 8,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,53; 46,7</t>
+          <t>40,41; 46,61</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,27; 41,93</t>
+          <t>13,21; 40,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 27,5</t>
+          <t>-1,12; 26,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,79; 125,88</t>
+          <t>85,54; 122,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 22,22</t>
+          <t>3,23; 22,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 16,35</t>
+          <t>-4,08; 15,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,31; 74,34</t>
+          <t>51,89; 75,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 28,15</t>
+          <t>10,6; 26,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 16,54</t>
+          <t>0,77; 16,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,06; 92,63</t>
+          <t>72,06; 92,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 10,4</t>
+          <t>1,95; 11,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 7,11</t>
+          <t>-2,05; 7,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,4; 53,32</t>
+          <t>46,31; 53,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 11,18</t>
+          <t>2,67; 10,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 5,25</t>
+          <t>-3,61; 5,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,95; 36,48</t>
+          <t>29,49; 36,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,69</t>
+          <t>3,24; 9,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,89</t>
+          <t>-1,69; 4,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,8; 43,53</t>
+          <t>38,48; 43,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 23,03</t>
+          <t>3,72; 24,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 16,13</t>
+          <t>-4,12; 16,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>91,43; 120,71</t>
+          <t>90,79; 120,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 18,29</t>
+          <t>3,98; 17,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 8,36</t>
+          <t>-5,49; 8,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,93; 60,24</t>
+          <t>44,13; 59,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 17,87</t>
+          <t>5,6; 17,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 8,95</t>
+          <t>-2,94; 8,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,84; 80,93</t>
+          <t>66,24; 81,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 8,82</t>
+          <t>-2,58; 8,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,11</t>
+          <t>-4,77; 6,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,04; 53,27</t>
+          <t>44,37; 52,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 10,96</t>
+          <t>1,18; 11,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 3,05</t>
+          <t>-6,75; 3,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,64; 39,72</t>
+          <t>31,59; 39,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,41</t>
+          <t>0,77; 8,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 3,11</t>
+          <t>-4,46; 3,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,09; 45,27</t>
+          <t>39,28; 45,01</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 19,91</t>
+          <t>-5,22; 18,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 13,54</t>
+          <t>-9,56; 13,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86,25; 123,18</t>
+          <t>86,98; 120,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 18,82</t>
+          <t>1,45; 18,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 5,34</t>
+          <t>-10,61; 5,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,07; 68,98</t>
+          <t>48,93; 67,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 15,98</t>
+          <t>1,37; 15,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 5,87</t>
+          <t>-7,91; 6,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>68,23; 87,17</t>
+          <t>69,07; 87,05</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,47; 16,4</t>
+          <t>7,09; 16,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,86; 12,93</t>
+          <t>4,18; 13,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>47,36; 54,23</t>
+          <t>47,34; 54,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,97</t>
+          <t>1,92; 10,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 4,23</t>
+          <t>-4,65; 4,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>27,57; 35,44</t>
+          <t>27,56; 35,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,1</t>
+          <t>5,93; 12,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,14</t>
+          <t>0,43; 7,1</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>38,01; 43,67</t>
+          <t>38,17; 43,48</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,95; 38,52</t>
+          <t>14,52; 37,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,15; 29,63</t>
+          <t>8,89; 30,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>98,2; 128,44</t>
+          <t>97,29; 127,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,07; 18,49</t>
+          <t>3,05; 17,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 7,0</t>
+          <t>-7,39; 7,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>43,63; 60,06</t>
+          <t>43,47; 60,22</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,59; 23,19</t>
+          <t>10,76; 23,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,14; 13,56</t>
+          <t>0,74; 13,44</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>68,73; 84,16</t>
+          <t>68,56; 84,18</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,67</t>
+          <t>5,69; 10,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,53</t>
+          <t>1,36; 6,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>48,02; 51,62</t>
+          <t>47,76; 51,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,12</t>
+          <t>4,48; 9,17</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,65</t>
+          <t>-2,07; 2,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>31,81; 35,71</t>
+          <t>31,93; 35,82</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,24</t>
+          <t>5,9; 9,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,08</t>
+          <t>0,6; 3,96</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40,24; 43,07</t>
+          <t>40,37; 43,15</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,08; 23,28</t>
+          <t>11,75; 23,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3,75; 14,25</t>
+          <t>2,83; 14,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>98,71; 114,17</t>
+          <t>97,87; 113,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,06; 15,05</t>
+          <t>7,07; 15,2</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 4,41</t>
+          <t>-3,25; 4,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>49,96; 58,89</t>
+          <t>50,29; 59,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,52; 17,26</t>
+          <t>10,49; 17,12</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,53</t>
+          <t>1,07; 7,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>72,1; 80,72</t>
+          <t>72,49; 80,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_enfcro_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,61</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>47,92</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,16</t>
+          <t>-18,96</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>39,78</t>
+          <t>-12,92</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 24,78</t>
+          <t>7,57; 18,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 9,51</t>
+          <t>-1,0; 10,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,31; 58,98</t>
+          <t>-11,95; -1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 22,39</t>
+          <t>2,9; 13,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 15,18</t>
+          <t>-2,97; 7,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,5; 41,14</t>
+          <t>-27,22; -13,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 20,37</t>
+          <t>7,34; 14,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 7,62</t>
+          <t>-0,05; 7,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,15; 46,57</t>
+          <t>-18,0; -9,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,94%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>-15,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,47%</t>
+          <t>-31,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>69,61%</t>
+          <t>-24,54%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 55,95</t>
+          <t>15,54; 42,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 21,49</t>
+          <t>-2,18; 23,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,22; 144,21</t>
+          <t>-24,97; -3,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 40,03</t>
+          <t>4,54; 23,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 26,62</t>
+          <t>-4,84; 13,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,58; 75,25</t>
+          <t>-45,28; -23,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 39,02</t>
+          <t>13,57; 28,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 14,49</t>
+          <t>-0,1; 13,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,24; 92,21</t>
+          <t>-33,37; -18,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,31</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>49,43</t>
+          <t>-16,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,51</t>
+          <t>-18,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,53</t>
+          <t>-18,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,71; 18,16</t>
+          <t>2,57; 11,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 11,58</t>
+          <t>-0,78; 8,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>44,3; 53,54</t>
+          <t>-30,36; -7,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 12,87</t>
+          <t>2,56; 11,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 8,98</t>
+          <t>-2,95; 6,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,28; 41,99</t>
+          <t>-22,76; -14,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 13,98</t>
+          <t>3,48; 9,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 8,5</t>
+          <t>-0,73; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,41; 46,61</t>
+          <t>-30,01; -12,85</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>105,36%</t>
+          <t>-37,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>-29,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>81,27%</t>
+          <t>-34,36%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,21; 40,66</t>
+          <t>5,38; 26,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 26,5</t>
+          <t>-1,59; 20,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,54; 122,85</t>
+          <t>-65,37; -18,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 22,87</t>
+          <t>3,95; 18,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 15,61</t>
+          <t>-4,57; 10,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,89; 75,28</t>
+          <t>-34,99; -23,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 26,91</t>
+          <t>6,36; 18,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 16,52</t>
+          <t>-1,37; 10,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,06; 92,07</t>
+          <t>-55,12; -24,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49,74</t>
+          <t>-12,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,79</t>
+          <t>-11,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>41,23</t>
+          <t>-11,01</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 11,07</t>
+          <t>-1,58; 9,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 7,31</t>
+          <t>-3,8; 7,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,31; 53,39</t>
+          <t>-18,43; -7,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 10,98</t>
+          <t>1,33; 11,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,09</t>
+          <t>-6,6; 3,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,49; 36,01</t>
+          <t>-27,14; 15,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,52</t>
+          <t>1,28; 8,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 4,56</t>
+          <t>-3,88; 3,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,48; 43,6</t>
+          <t>-20,85; 7,51</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>104,0%</t>
+          <t>-28,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>-3,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,27%</t>
+          <t>-19,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>-20,94%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 24,1</t>
+          <t>-3,05; 23,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 16,04</t>
+          <t>-8,01; 17,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>90,79; 120,44</t>
+          <t>-38,53; -17,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,98; 17,65</t>
+          <t>2,1; 19,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 8,22</t>
+          <t>-10,46; 5,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,13; 59,16</t>
+          <t>-44,7; 27,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,6; 17,54</t>
+          <t>2,61; 17,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 8,43</t>
+          <t>-7,08; 7,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,24; 81,13</t>
+          <t>-39,16; 14,44</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>48,59</t>
+          <t>-10,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,68</t>
+          <t>-23,17</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42,15</t>
+          <t>-17,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 8,24</t>
+          <t>9,11; 18,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 6,29</t>
+          <t>6,05; 14,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,37; 52,86</t>
+          <t>-15,1; -5,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,08</t>
+          <t>3,33; 11,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 3,03</t>
+          <t>-3,14; 5,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,59; 39,39</t>
+          <t>-29,79; -18,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,05</t>
+          <t>7,46; 13,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 3,3</t>
+          <t>2,22; 8,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>39,28; 45,01</t>
+          <t>-21,46; -14,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>102,68%</t>
+          <t>-24,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>-39,08%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,1%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>77,66%</t>
+          <t>-33,36%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 18,62</t>
+          <t>20,17; 45,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 13,93</t>
+          <t>13,69; 37,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>86,98; 120,12</t>
+          <t>-34,03; -14,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 18,97</t>
+          <t>5,43; 20,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 5,1</t>
+          <t>-5,26; 9,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,93; 67,55</t>
+          <t>-50,01; -32,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,37; 15,36</t>
+          <t>14,08; 28,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 6,28</t>
+          <t>4,23; 17,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>69,07; 87,05</t>
+          <t>-41,18; -28,12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>50,96</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>32,1</t>
+          <t>-18,24</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>41,02</t>
+          <t>-15,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,09; 16,53</t>
+          <t>6,9; 11,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,18; 13,0</t>
+          <t>2,69; 7,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>47,34; 54,18</t>
+          <t>-20,42; -9,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,51</t>
+          <t>4,84; 9,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,15</t>
+          <t>-1,51; 3,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>27,56; 35,51</t>
+          <t>-22,49; -7,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,93; 12,3</t>
+          <t>6,67; 10,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,43; 7,1</t>
+          <t>1,39; 4,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>38,17; 43,48</t>
+          <t>-19,24; -10,43</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>112,1%</t>
+          <t>-28,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>-30,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>76,01%</t>
+          <t>-29,11%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,52; 37,7</t>
+          <t>15,06; 27,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,89; 30,1</t>
+          <t>5,84; 18,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>97,29; 127,45</t>
+          <t>-45,53; -20,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,05; 17,71</t>
+          <t>7,81; 16,09</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 7,02</t>
+          <t>-2,47; 5,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>43,47; 60,22</t>
+          <t>-37,05; -13,03</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>10,76; 23,68</t>
+          <t>12,43; 19,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,74; 13,44</t>
+          <t>2,59; 9,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>68,56; 84,18</t>
+          <t>-36,57; -19,86</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>8,25</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,08</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>49,73</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>33,96</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>41,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>5,69; 10,66</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 6,52</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>47,76; 51,61</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 9,17</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 2,7</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>31,93; 35,82</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>5,9; 9,23</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 3,96</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>40,37; 43,15</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>17,54%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>8,67%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>105,75%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>10,94%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>54,76%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>13,78%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>76,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>11,75; 23,33</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 14,27</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>97,87; 113,41</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 15,2</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 4,45</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>50,29; 59,35</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>10,49; 17,12</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 7,36</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>72,49; 80,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2A_enfcro_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_enfcro_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 18,43</t>
+          <t>7,96; 18,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 10,2</t>
+          <t>-0,54; 10,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,95; -1,27</t>
+          <t>-12,88; -1,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 13,38</t>
+          <t>2,71; 13,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 7,65</t>
+          <t>-2,65; 7,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-27,22; -13,66</t>
+          <t>-28,29; -14,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,47</t>
+          <t>6,81; 14,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,08</t>
+          <t>-0,02; 7,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,0; -9,23</t>
+          <t>-18,7; -9,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,54; 42,75</t>
+          <t>16,29; 43,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 23,24</t>
+          <t>-1,12; 24,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,97; -3,12</t>
+          <t>-27,25; -2,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 23,58</t>
+          <t>4,42; 23,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 13,34</t>
+          <t>-4,21; 13,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,28; -23,8</t>
+          <t>-47,95; -24,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 28,66</t>
+          <t>12,52; 28,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 13,78</t>
+          <t>-0,0; 14,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,37; -18,11</t>
+          <t>-34,67; -18,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 11,44</t>
+          <t>2,25; 11,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 8,68</t>
+          <t>-0,97; 8,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,36; -7,92</t>
+          <t>-30,95; -7,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 11,09</t>
+          <t>2,3; 11,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 6,01</t>
+          <t>-2,9; 5,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -14,42</t>
+          <t>-22,49; -14,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 9,71</t>
+          <t>3,49; 9,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,71</t>
+          <t>-0,67; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,01; -12,85</t>
+          <t>-32,27; -12,71</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 26,68</t>
+          <t>4,75; 27,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 20,4</t>
+          <t>-2,13; 19,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,37; -18,03</t>
+          <t>-66,31; -17,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 18,41</t>
+          <t>3,55; 18,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 10,09</t>
+          <t>-4,48; 9,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,99; -23,91</t>
+          <t>-34,94; -24,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,36; 18,65</t>
+          <t>6,34; 19,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 10,97</t>
+          <t>-1,22; 10,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,12; -24,21</t>
+          <t>-58,07; -23,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 9,94</t>
+          <t>-1,74; 9,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 7,35</t>
+          <t>-3,5; 7,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -7,38</t>
+          <t>-17,91; -7,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 11,35</t>
+          <t>1,29; 10,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,3</t>
+          <t>-7,63; 3,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 15,25</t>
+          <t>-27,55; 12,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 8,93</t>
+          <t>1,29; 8,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,63</t>
+          <t>-3,56; 3,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 7,51</t>
+          <t>-20,07; 8,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 23,77</t>
+          <t>-3,72; 22,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 17,48</t>
+          <t>-7,38; 17,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,53; -17,31</t>
+          <t>-38,04; -16,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 19,74</t>
+          <t>2,05; 19,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 5,75</t>
+          <t>-12,14; 6,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,7; 27,15</t>
+          <t>-45,07; 22,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 17,61</t>
+          <t>2,28; 17,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 7,19</t>
+          <t>-6,46; 7,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,16; 14,44</t>
+          <t>-38,05; 17,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,11; 18,49</t>
+          <t>9,02; 18,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 14,77</t>
+          <t>5,78; 14,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,1; -5,71</t>
+          <t>-15,23; -5,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 11,81</t>
+          <t>3,54; 11,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,44</t>
+          <t>-3,51; 5,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-29,79; -18,39</t>
+          <t>-31,37; -18,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,83</t>
+          <t>7,3; 13,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 8,57</t>
+          <t>2,24; 8,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-21,46; -14,01</t>
+          <t>-21,06; -13,6</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20,17; 45,88</t>
+          <t>20,2; 45,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,69; 37,28</t>
+          <t>12,9; 36,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,03; -14,38</t>
+          <t>-34,63; -14,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,43; 20,47</t>
+          <t>5,76; 20,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 9,39</t>
+          <t>-5,68; 9,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,01; -32,13</t>
+          <t>-50,88; -32,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,08; 28,02</t>
+          <t>13,95; 28,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,23; 17,51</t>
+          <t>4,29; 17,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,18; -28,12</t>
+          <t>-40,72; -27,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,92</t>
+          <t>7,08; 12,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,78</t>
+          <t>2,77; 7,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-20,42; -9,09</t>
+          <t>-19,08; -8,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,48</t>
+          <t>4,98; 9,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 3,33</t>
+          <t>-1,57; 3,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,49; -7,89</t>
+          <t>-22,53; -7,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,08</t>
+          <t>6,63; 10,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,82</t>
+          <t>1,37; 4,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,24; -10,43</t>
+          <t>-18,82; -9,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,06; 27,68</t>
+          <t>15,39; 28,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,0</t>
+          <t>6,06; 18,5</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-45,53; -20,72</t>
+          <t>-42,66; -20,33</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,81; 16,09</t>
+          <t>8,12; 16,05</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,6</t>
+          <t>-2,52; 5,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,05; -13,03</t>
+          <t>-37,11; -12,58</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,43; 19,6</t>
+          <t>12,53; 19,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,35</t>
+          <t>2,62; 9,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-36,57; -19,86</t>
+          <t>-35,85; -17,9</t>
         </is>
       </c>
     </row>
